--- a/Result/check3/2025-03-19.xlsx
+++ b/Result/check3/2025-03-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:AV14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8383</t>
+          <t>8222</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>10.12</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2462.0</t>
+          <t>5699.657</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11.37</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>45.1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,72 +733,72 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.8</t>
+          <t>16.48</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>112</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>9726</t>
+          <t>113285</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.9</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>-9.07</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -818,87 +818,87 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>234543.0</t>
+          <t>264787513.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>千附</t>
+          <t>寶一</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>8.14</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>14.66</t>
+          <t>36.24</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>30.51%</t>
+          <t>23.89%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>17.70%</t>
+          <t>8.00%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>31.38</t>
+          <t>36.08</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5836</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>商品銷售63.23%、工程36.53%、勞務0.25% (2024年)</t>
+          <t>航太零組件100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>千附-其他電子業-上櫃</t>
+          <t>寶一-電機機械-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>電機機械右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>32.69</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 機電系統工程、金屬加工處理** 建材營造 - 機電工程、工程設計、工程承攬** 其他 - 其他</t>
+          <t>** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8222</t>
+          <t>6829</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10.12</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5699.657</t>
+          <t>8984.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,17 +945,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>5.07</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4.33</t>
+          <t>49.94</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -965,7 +965,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>45.1</t>
+          <t>151.5</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,162 +975,162 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>15.86</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>55746</t>
+          <t>6822</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-3.37</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-0.61</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2025-03-18</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>2482075.0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>千附精密</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>電機機械</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
           <t>3.39</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>7.63</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>155.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-03-18</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>264787513.0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>寶一</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>35.97</t>
+          <t>26.06</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>23.89%</t>
+          <t>35.76%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>22.67%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>35.58</t>
+          <t>80.83</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3676</t>
+          <t>8727</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>航太零組件100.00% (2024年)</t>
+          <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>寶一-電機機械-上市</t>
+          <t>千附精密-電機機械-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>33.84</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電機機械 - 金屬加工處理</t>
+          <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6829</t>
+          <t>6517</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>7.37</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8984.0</t>
+          <t>3800.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,142 +1187,142 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>-0.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>49.94</t>
+          <t>11.36</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>88.6</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>13343</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-2.97</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>529.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>151.5</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>9935</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>-0.61</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>274.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2482075.0</t>
+          <t>1438779.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>千附精密</t>
+          <t>保勝光學</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>7.65</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>27.03</t>
+          <t>27.08</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>35.76%</t>
+          <t>36.23%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>22.67%</t>
+          <t>17.18%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>80.55</t>
+          <t>70.93</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>9053</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>光電及半導體設備零組件67.59%、航太零組件32.41% (2024年)</t>
+          <t>光學鏡頭60.10%、光學鏡片35.37%、其他4.53% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>千附精密-電機機械-上櫃</t>
+          <t>保勝光學-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電機機械右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>33.84</t>
+          <t>21.79</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備** 平面顯示器 - 其他零組件** 電機機械 - 金屬加工處理</t>
+          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6596</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.21</t>
+          <t>-1.14</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>872.0</t>
+          <t>947.03</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,202 +1429,202 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.03</t>
+          <t>-0.15</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>23.92</t>
+          <t>4.37</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>876</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>99.6</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-10.06</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>781</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>131.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>-7.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-03-11</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>310790.0</t>
+          <t>96665075.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>寬宏藝術</t>
+          <t>建國</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>10.89</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>9.51</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>30.35%</t>
+          <t>14.36%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>18.56%</t>
+          <t>8.93%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>118.0</t>
+          <t>50.31</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3439</t>
+          <t>6481</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>勞務80.95%、工程14.97%、商品銷售4.07% (2023年)</t>
+          <t>工程99.99%、其他0.01% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>寬宏藝術-文化創意業-上櫃</t>
+          <t>建國-建材營造-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>24.48</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 流行音樂及文化內容產業</t>
+          <t>** 建材營造 - 建材原料、營造業</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6517</t>
+          <t>4541</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3800.0</t>
+          <t>13268.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.41</t>
+          <t>11.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11.36</t>
+          <t>9.06</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>88.6</t>
+          <t>43.7</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,32 +1701,32 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>13.14</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>397</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>20762</t>
+          <t>89207</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>-8.53</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1736,37 +1736,37 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>4.26</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>529.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>87.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1776,37 +1776,37 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1438779.0</t>
+          <t>790639.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>保勝光學</t>
+          <t>晟田</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1816,57 +1816,57 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>4.2</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>27.79</t>
+          <t>42.78</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>36.23%</t>
+          <t>22.84%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>17.18%</t>
+          <t>13.57%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>69.18</t>
+          <t>78.18</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>3119</t>
+          <t>3646</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>光學鏡頭60.10%、光學鏡片35.37%、其他4.53% (2024年)</t>
+          <t>航天75.05%、非航太24.95% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>保勝光學-光電業-上櫃</t>
+          <t>晟田-其他-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>21.79</t>
+          <t>23.98</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.14</t>
+          <t>-0.71</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>947.03</t>
+          <t>261.813</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.15</t>
+          <t>-0.54</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>30.35</t>
+          <t>55.8</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,72 +1943,72 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1515</t>
+          <t>1288</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>-14.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -2018,37 +2018,37 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-03-07</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>36</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>96665075.0</t>
+          <t>41867196.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>建國</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
@@ -2058,57 +2058,57 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>5.1</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>10.89</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>13.39</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>14.36%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>8.93%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>50.02</t>
+          <t>41.63</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>6492</t>
+          <t>15666</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>工程服務(含機電)99.99%、其他0.01% (2023年)</t>
+          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、面膜0.01%、食品-其他0.01% (2023年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>建國-建材營造-上市</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料、營造業</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4541</t>
+          <t>3596</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13268.0</t>
+          <t>1549.769</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>11.05</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>43.7</t>
+          <t>212.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>18.01</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>53802</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>0.06</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2260,97 +2260,97 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-03-04</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>32</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>790639.0</t>
+          <t>441513938.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>晟田</t>
+          <t>智易</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>54.85</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>20.04</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>22.84%</t>
+          <t>15.36%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>13.57%</t>
+          <t>6.24%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>77.78</t>
+          <t>116.07</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>3606</t>
+          <t>49800</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>航天75.05%、非航太24.95% (2024年)</t>
+          <t>智慧家庭類產品45.95%、行動通訊產品32.94%、寬頻固網18.21%、其他2.90% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>晟田-其他-上櫃</t>
+          <t>智易-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>23.98</t>
+          <t>72.32</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>3434</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>36625.0</t>
+          <t>3293.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-8.14</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>67.87</t>
+          <t>11.26</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>82.3</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,57 +2427,57 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>19.5</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>47208</t>
+          <t>15380</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-7.38</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>162.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>85.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2507,32 +2507,32 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-02-17</t>
+          <t>2025-03-12</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>85</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>8188926.0</t>
+          <t>379602.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>信立</t>
+          <t>哲固</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>塑膠工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>6.47</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>7.79</t>
+          <t>28.71</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>9.30%</t>
+          <t>19.83%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-26.59%</t>
+          <t>3.38%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>10.68</t>
+          <t>70.93</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>6520</t>
+          <t>1344</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>乾式PU皮36.20%、濕式PU合成皮29.82%、榔皮26.28%、其他3.69%、租賃2.34%、電力1.67% (2024年)</t>
+          <t>安全監視產品91.38%、工業電腦(IPC)5.02%、其他3.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>信立-塑膠工業-上櫃</t>
+          <t>哲固-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>塑膠工業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 石化及塑橡膠 - 塑膠製品、人造纖維</t>
+          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>2634</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.71</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>261.813</t>
+          <t>40800.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,142 +2639,142 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.54</t>
+          <t>9.38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>38.67</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>51.9</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>105511</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-5.16</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>55.8</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1572</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>-14.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>36.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-03-10</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>41867196.0</t>
+          <t>2718138955.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>漢翔</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>12.02</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>13.26</t>
+          <t>22.7</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>8.44%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>3.52%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>41.67</t>
+          <t>17.39</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>15506</t>
+          <t>49165</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>人用藥品-錠劑類27.95%、人用藥品-膠囊類18.01%、人用藥品-注射類9.09%、針劑類製劑等7.84%、食品膠囊類5.78%、代理其他產品4.88%、食品錠劑類4.34%、原物料4.25%、代工產品- 動物用藥散劑3.29%、代工-食品錠劑2.18%、代工-食品膠囊1.80%、人用藥品-軟膏類1.78%、代工- 食品散劑1.28%、其他非針劑製劑1.23%、人用藥品-液劑類1.10%、人用藥品-栓劑類0.81%、代工-人用注射0.78%、人用藥品-散劑0.70%、醫療器材0.65%、食品散劑類0.61%、動物用藥-散劑0.46%、人用藥品-顆粒類0.29%、代工-人用膠囊0.27%、化妝品 -液劑類0.15%、代工-人用錠劑0.14%、化�菻~-霜劑0.10%、代工-化妝品液劑0.07%、食品顆粒類0.06%、化妝品-其他0.04%、食品-液劑類0.02%、代工- 化妝品霜劑0.02%、面膜0.01%、食品-其他0.01% (2023年)</t>
+          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>漢翔-航運業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.24</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1549.769</t>
+          <t>19423.763</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,17 +2881,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>30.58</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>212.0</t>
+          <t>37.85</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,112 +2911,112 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>6.19</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>27504</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>4.94</t>
+          <t>-4.49</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>-0.09</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>32.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-03-04</t>
+          <t>2025-03-19</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>441513938.0</t>
+          <t>582207474.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>智易</t>
+          <t>亞航</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>54.85</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>20.04</t>
+          <t>57.91</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>15.36%</t>
+          <t>8.47%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>6.24%</t>
+          <t>2.87%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>115.56</t>
+          <t>17.39</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>49800</t>
+          <t>8126</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>智慧家庭類產品45.95%、行動通訊產品32.94%、寬頻固網18.21%、其他2.90% (2024年)</t>
+          <t>零附件維修類(自修)40.26%、飛機修護24.16%、委外送修及航材買賣22.80%、機隊維持及修護補給裝機計價12.78% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>智易-通信網路業-上市</t>
+          <t>亞航-航運業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>72.32</t>
+          <t>16.57</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)</t>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3434</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3293.0</t>
+          <t>395.752</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>11.26</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,172 +3153,172 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11.47</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>1480</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0.88</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>162.0</t>
+          <t>-8.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>85.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-2.0</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-03-12</t>
+          <t>2025-03-14</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>379602.0</t>
+          <t>-3740997.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>哲固</t>
+          <t>聯昌</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>3.46</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>6.47</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>26.11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>19.83%</t>
+          <t>-2.98%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>3.38%</t>
+          <t>-27.80%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>69.18</t>
+          <t>29.26</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1222</t>
+          <t>1653</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>安全監視產品81.64%、工業應用產品10.77%、其他5.88%、健康醫療產品1.24%、健康及保健產品0.48% (2023年)</t>
+          <t>電源供應器88.78%、其他11.22% (2023年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>哲固-光電業-上櫃</t>
+          <t>聯昌-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子零組件業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 工業電腦、安全監控系統** 平面顯示器 - 監視器/顯示器</t>
+          <t>** 電腦及週邊設備 - 電源供應器</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>1810</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>8.82</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5251.571</t>
+          <t>9435.457</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,202 +3365,202 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.75</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>13.38</t>
+          <t>19.57</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>18.55</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>11897</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>-3.48</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>182218113.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>和成</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>28.45</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-4.6</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>-3.68</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>203.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>53.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2025-03-12</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>441483857.0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>銘異</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>電腦及週邊設備業</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>4.3</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>60.44</t>
+          <t>98.42</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>16.65%</t>
+          <t>24.72%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>5.46%</t>
+          <t>0.22%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>98.5</t>
+          <t>48.89</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>3742</t>
+          <t>5653</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>音圈馬達(VCM)43.59%、其他18.34%、硬碟機上蓋(COVER)17.34%、外接式儲存設備10.89%、硬碟機零組件(HDD)5.75%、顯微鏡零組件4.10% (2024年)</t>
+          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>銘異-電腦及週邊設備業-上市</t>
+          <t>和成-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>19.65</t>
+          <t>22.66</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3575,7 +3575,7 @@
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 其他電腦及週邊設備之零組件</t>
+          <t>** 建材營造 - 建材原料</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2634</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9.86</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>40800.89</t>
+          <t>6309.945</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9.38</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>45.74</t>
+          <t>12.35</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>45.05</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,72 +3637,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>35</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>59375</t>
+          <t>8286</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>151.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3717,32 +3717,32 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-03-10</t>
+          <t>2025-02-17</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>2718138955.0</t>
+          <t>382941436.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>漢翔</t>
+          <t>亞泥</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>水泥工業</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
@@ -3752,57 +3752,57 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>12.02</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>23.39</t>
+          <t>13.02</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>17.30%</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>3.52%</t>
+          <t>15.00%</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>17.42</t>
+          <t>19.7</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>50672</t>
+          <t>167575</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>飛機及航空器維修類59.69%、引擎30.34%、工業技術服務類9.98% (2023年)</t>
+          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>漢翔-航運業-上市</t>
+          <t>亞泥-水泥工業-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>水泥工業右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>19.37</t>
+          <t>51.13</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3816,1700 +3816,6 @@
         </is>
       </c>
       <c r="AV14" t="inlineStr">
-        <is>
-          <t>** 其他 - 其他</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2630</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>19423.763</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>30.58</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>37.85</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>13558</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>8.99</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>92.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>582207474.0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>亞航</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>58.81</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>8.47%</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>2.87%</t>
-        </is>
-      </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>17.42</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>8252</t>
-        </is>
-      </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>零附件維修類(自修)40.26%、飛機修護24.16%、委外送修及航材買賣22.80%、機隊維持及修護補給裝機計價12.78% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>亞航-航運業-上市</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>航運業平</t>
-        </is>
-      </c>
-      <c r="AS15" t="inlineStr">
-        <is>
-          <t>16.57</t>
-        </is>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU15" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2547</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>21788.706</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>26.07</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>13.5</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>7441</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>85.0</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA16" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>2025-03-10</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AE16" t="inlineStr">
-        <is>
-          <t>610129714.0</t>
-        </is>
-      </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>日勝生</t>
-        </is>
-      </c>
-      <c r="AG16" t="inlineStr">
-        <is>
-          <t>建材營造</t>
-        </is>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI16" t="inlineStr">
-        <is>
-          <t>4.6</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>49.27%</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>24.39%</t>
-        </is>
-      </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>50.02</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>14129</t>
-        </is>
-      </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>日鼎水務-桃園污水下水道BOT24.35%、寶鼎-桃園水資源回收中心再18.59%、日勝生-板橋浮洲合宜住宅案14.40%、百貨13.29%、營業租賃11.02%、其他9.90%、飯店服務4.79%、營建工程2.46%、勞務1.14%、日勝生-新店美河市案0.06% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>日勝生-建材營造-上市</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>建材營造右上</t>
-        </is>
-      </c>
-      <c r="AS16" t="inlineStr">
-        <is>
-          <t>11.67</t>
-        </is>
-      </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU16" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV16" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建設業</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2431</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>395.752</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>14.5</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>1832</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-4.79</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>-8.0</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>6.0</t>
-        </is>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA17" t="inlineStr">
-        <is>
-          <t>-2.0</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>2025-03-14</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AE17" t="inlineStr">
-        <is>
-          <t>-3740997.0</t>
-        </is>
-      </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>聯昌</t>
-        </is>
-      </c>
-      <c r="AG17" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>-2.98%</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>-27.80%</t>
-        </is>
-      </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>28.94</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>1620</t>
-        </is>
-      </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>電源供應器88.78%、其他11.22% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>聯昌-電子零組件業-上市</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>電子零組件業右上</t>
-        </is>
-      </c>
-      <c r="AS17" t="inlineStr">
-        <is>
-          <t>12.29</t>
-        </is>
-      </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU17" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV17" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 電源供應器</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2429</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>33392.241</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-6.05</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>73.46</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>59.3</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-4.77</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>7893</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-8.13</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>2025-02-13</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="AE18" t="inlineStr">
-        <is>
-          <t>3216697609.0</t>
-        </is>
-      </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>銘旺科</t>
-        </is>
-      </c>
-      <c r="AG18" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>3.38%</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>-21.03%</t>
-        </is>
-      </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>84.99</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>4740</t>
-        </is>
-      </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>光學面板96.69%、其他3.31% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>銘旺科-光電業-上市</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS18" t="inlineStr">
-        <is>
-          <t>10.42</t>
-        </is>
-      </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU18" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV18" t="inlineStr">
-        <is>
-          <t>** 平面顯示器 - 其他零組件** 觸控面板 - 觸控面板</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2347</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-1.48</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>4701.896</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-1.63</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>73.5</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-1.94</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>4878</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-2.77</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-03-13</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-04-01</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE19" t="inlineStr">
-        <is>
-          <t>-232795555.0</t>
-        </is>
-      </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>聯強</t>
-        </is>
-      </c>
-      <c r="AG19" t="inlineStr">
-        <is>
-          <t>電子通路業</t>
-        </is>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>67.9</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>13.06</t>
-        </is>
-      </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>4.69%</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>2.76%</t>
-        </is>
-      </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>15.52</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>120259</t>
-        </is>
-      </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>商品銷售99.34%、勞務0.66% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>聯強-電子通路業-上市</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>電子通路業平</t>
-        </is>
-      </c>
-      <c r="AS19" t="inlineStr">
-        <is>
-          <t>46.22</t>
-        </is>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU19" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="AV19" t="inlineStr">
-        <is>
-          <t>** 半導體 - IC通路</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1810</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>9435.457</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8.36</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>19.57</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>18.55</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>13622</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>7.76</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>172.0</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA20" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="AE20" t="inlineStr">
-        <is>
-          <t>182218113.0</t>
-        </is>
-      </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>和成</t>
-        </is>
-      </c>
-      <c r="AG20" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI20" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>4.3</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>100.79</t>
-        </is>
-      </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>24.72%</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>0.22%</t>
-        </is>
-      </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>48.89</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>5789</t>
-        </is>
-      </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>瓷器38.01%、其他29.50%、銅器18.40%、馬桶蓋12.58%、精密陶瓷1.52% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>和成-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷平</t>
-        </is>
-      </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>22.66</t>
-        </is>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU20" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV20" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-03-19</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1102</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>6309.945</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>12.35</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>45.05</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>12640</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>-0.32</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>382941436.0</t>
-        </is>
-      </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>亞泥</t>
-        </is>
-      </c>
-      <c r="AG21" t="inlineStr">
-        <is>
-          <t>水泥工業</t>
-        </is>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI21" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>17.30%</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>15.00%</t>
-        </is>
-      </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>19.67</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>166511</t>
-        </is>
-      </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>商品銷售71.17%、電力22.51%、運輸服務2.59%、出售投資利益1.41%、租賃1.32%、股利收入0.70%、工程0.30% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ21" t="inlineStr">
-        <is>
-          <t>亞泥-水泥工業-上市</t>
-        </is>
-      </c>
-      <c r="AR21" t="inlineStr">
-        <is>
-          <t>水泥工業右上</t>
-        </is>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>51.13</t>
-        </is>
-      </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV21" t="inlineStr">
         <is>
           <t>** 水泥 - 水泥熟料** 風力發電 - 風場開發、發電營運</t>
         </is>
